--- a/DATA_goal/Junction_Flooding_412.xlsx
+++ b/DATA_goal/Junction_Flooding_412.xlsx
@@ -447,27 +447,27 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.78</v>
+        <v>27.8</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.25</v>
+        <v>112.55</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.2</v>
+        <v>22.02</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.51</v>
+        <v>25.14</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.4</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.12</v>
+        <v>101.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.55</v>
+        <v>25.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.83</v>
+        <v>38.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_412.xlsx
+++ b/DATA_goal/Junction_Flooding_412.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.92361111111</v>
+        <v>45093.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.93055555555</v>
+        <v>45093.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.33</v>
+        <v>17.513</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.53</v>
+        <v>13.009</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.689</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.26</v>
+        <v>38.631</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.52</v>
+        <v>30.823</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.75</v>
+        <v>13.359</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.8</v>
+        <v>50.335</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.22</v>
+        <v>21.469</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.7</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.67</v>
+        <v>13.456</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.16</v>
+        <v>15.704</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.23</v>
+        <v>16.344</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.53</v>
+        <v>4.76</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.55</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.05</v>
+        <v>19.524</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.58</v>
+        <v>12.075</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.154</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.708</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.55</v>
+        <v>204.406</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.02</v>
+        <v>38.846</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.12</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.31</v>
+        <v>25.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.44</v>
+        <v>13.733</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.929</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.12</v>
+        <v>26.081</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.36</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.41</v>
+        <v>10.198</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.59</v>
+        <v>11.954</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>16.301</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.14</v>
+        <v>46.167</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.57</v>
+        <v>7.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.73</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.9375</v>
+        <v>45093.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.59</v>
+        <v>9.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.025</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.4</v>
+        <v>20.891</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.95</v>
+        <v>16.536</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.03</v>
+        <v>7.087</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.06</v>
+        <v>31.718</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.1</v>
+        <v>11.584</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.14</v>
+        <v>5.183</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.77</v>
+        <v>7.121</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.24</v>
+        <v>8.542999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.34</v>
+        <v>8.839</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.3</v>
+        <v>2.648</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.87</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.1</v>
+        <v>10.524</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.94</v>
+        <v>6.622</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.766</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.2</v>
+        <v>107.139</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20</v>
+        <v>21.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.46</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.14</v>
+        <v>13.916</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.51</v>
+        <v>7.396</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.034</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.75</v>
+        <v>15.775</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.79</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.65</v>
+        <v>5.559</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.65</v>
+        <v>6.512</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.66</v>
+        <v>8.811</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.53</v>
+        <v>29.295</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.02</v>
+        <v>3.791</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.94444444445</v>
+        <v>45093.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.42</v>
+        <v>8.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.81</v>
+        <v>6.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.01</v>
+        <v>19.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.53</v>
+        <v>15.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.77</v>
+        <v>28.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.71</v>
+        <v>11.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.27</v>
+        <v>4.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.41</v>
+        <v>6.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.57</v>
+        <v>8.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.47</v>
+        <v>8.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.97</v>
+        <v>2.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.78</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.28</v>
+        <v>10.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.51</v>
+        <v>6.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.6</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.33</v>
+        <v>101.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.59</v>
+        <v>20</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.67</v>
+        <v>6.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.55</v>
+        <v>13.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.34</v>
+        <v>7.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.97</v>
+        <v>14.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.43</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.57</v>
+        <v>5.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3</v>
+        <v>6.16</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.76</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.65</v>
+        <v>26.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.77</v>
+        <v>3.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_412.xlsx
+++ b/DATA_goal/Junction_Flooding_412.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45093.50694444445</v>
+        <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45093.51388888889</v>
+        <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.513</v>
+        <v>9.331</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.009</v>
+        <v>7.528</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.689</v>
+        <v>0.113</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.631</v>
+        <v>21.256</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.823</v>
+        <v>17.524</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.359</v>
+        <v>7.75</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.335</v>
+        <v>27.804</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.469</v>
+        <v>12.224</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.515000000000001</v>
+        <v>5.696</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.456</v>
+        <v>8.667</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.704</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.344</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.76</v>
+        <v>2.535</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.911</v>
+        <v>7.555</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.524</v>
+        <v>11.047</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.075</v>
+        <v>6.581</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.154</v>
+        <v>0.194</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.708</v>
+        <v>0.442</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.406</v>
+        <v>112.546</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.846</v>
+        <v>22.017</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.84</v>
+        <v>7.124</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.72</v>
+        <v>14.309</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.733</v>
+        <v>8.436</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.929</v>
+        <v>1.035</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.081</v>
+        <v>14.123</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.342</v>
+        <v>6.363</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.198</v>
+        <v>6.409</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.954</v>
+        <v>7.588</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.301</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.167</v>
+        <v>25.137</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.1</v>
+        <v>4.568</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.053</v>
+        <v>8.731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45093.52083333334</v>
+        <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.42</v>
+        <v>8.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.99</v>
+        <v>6.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.025</v>
+        <v>0.131</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.891</v>
+        <v>19.402</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.536</v>
+        <v>15.945</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.087</v>
+        <v>7.035</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.718</v>
+        <v>28.061</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.584</v>
+        <v>11.099</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.183</v>
+        <v>5.141</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.121</v>
+        <v>7.771</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.542999999999999</v>
+        <v>8.239000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.839</v>
+        <v>8.339</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.648</v>
+        <v>2.295</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.519</v>
+        <v>6.873</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.524</v>
+        <v>10.096</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.622</v>
+        <v>5.939</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.153</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>107.139</v>
+        <v>101.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.14</v>
+        <v>20</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.941</v>
+        <v>6.463</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.916</v>
+        <v>13.137</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.396</v>
+        <v>7.514</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.034</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.775</v>
+        <v>13.751</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.131</v>
+        <v>5.788</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.559</v>
+        <v>5.653</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.512</v>
+        <v>6.647</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.811</v>
+        <v>8.664</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.671</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.295</v>
+        <v>25.531</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.791</v>
+        <v>4.017</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>8.002000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45093.52777777778</v>
+        <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.98</v>
+        <v>3.424</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.69</v>
+        <v>2.809</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.013</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.85</v>
+        <v>8.013</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.87</v>
+        <v>6.531</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.8</v>
+        <v>2.903</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.56</v>
+        <v>14.773</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.01</v>
+        <v>4.709</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.95</v>
+        <v>2.268</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.89</v>
+        <v>3.408</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.1</v>
+        <v>3.574</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.41</v>
+        <v>3.465</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.49</v>
+        <v>0.973</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.14</v>
+        <v>2.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.02</v>
+        <v>4.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.22</v>
+        <v>2.506</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.095</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.4</v>
+        <v>38.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20</v>
+        <v>8.593</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.59</v>
+        <v>2.667</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.23</v>
+        <v>5.549</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.02</v>
+        <v>3.336</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.394</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.19</v>
+        <v>6.967</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.82</v>
+        <v>2.431</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.16</v>
+        <v>3.004</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>3.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.12</v>
+        <v>13.646</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.63</v>
+        <v>1.769</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.24</v>
+        <v>3.296</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.95137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_412.xlsx
+++ b/DATA_goal/Junction_Flooding_412.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.92361111111</v>
+        <v>45093.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.378</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.209</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.173</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.188</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.041</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.381</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.973</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.774</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.167</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.371</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.162</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.805</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.849</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.447</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.297</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.425</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19199999999999</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.308</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.642</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.977</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.068</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.066</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.321</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.735</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.773</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.064</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.189</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.93055555555</v>
+        <v>45093.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.331</v>
+        <v>17.513</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.528</v>
+        <v>13.009</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.113</v>
+        <v>1.689</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.256</v>
+        <v>38.631</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.524</v>
+        <v>30.823</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.75</v>
+        <v>13.359</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.804</v>
+        <v>50.335</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.224</v>
+        <v>21.469</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.696</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.667</v>
+        <v>13.456</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.159000000000001</v>
+        <v>15.704</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.226000000000001</v>
+        <v>16.344</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.535</v>
+        <v>4.76</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.555</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.047</v>
+        <v>19.524</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.581</v>
+        <v>12.075</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.194</v>
+        <v>1.154</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.442</v>
+        <v>0.708</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.546</v>
+        <v>204.406</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.017</v>
+        <v>38.846</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.124</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.309</v>
+        <v>25.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.436</v>
+        <v>13.733</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.035</v>
+        <v>1.929</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.123</v>
+        <v>26.081</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.363</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.409</v>
+        <v>10.198</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.588</v>
+        <v>11.954</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.635999999999999</v>
+        <v>16.301</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.419</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.137</v>
+        <v>46.167</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.568</v>
+        <v>7.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.731</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.9375</v>
+        <v>45093.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.59</v>
+        <v>9.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.131</v>
+        <v>1.025</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.402</v>
+        <v>20.891</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.945</v>
+        <v>16.536</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.035</v>
+        <v>7.087</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.061</v>
+        <v>31.718</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.099</v>
+        <v>11.584</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.141</v>
+        <v>5.183</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.771</v>
+        <v>7.121</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.239000000000001</v>
+        <v>8.542999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.339</v>
+        <v>8.839</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.295</v>
+        <v>2.648</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.873</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.096</v>
+        <v>10.524</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.939</v>
+        <v>6.622</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.153</v>
+        <v>0.766</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.2</v>
+        <v>107.139</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20</v>
+        <v>21.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.463</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.137</v>
+        <v>13.916</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.514</v>
+        <v>7.396</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9370000000000001</v>
+        <v>1.034</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.751</v>
+        <v>15.775</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.788</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.653</v>
+        <v>5.559</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.647</v>
+        <v>6.512</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.664</v>
+        <v>8.811</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.281</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.531</v>
+        <v>29.295</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.017</v>
+        <v>3.791</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.002000000000001</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.94444444445</v>
+        <v>45093.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.424</v>
+        <v>8.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.809</v>
+        <v>6.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.013</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.013</v>
+        <v>19.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.531</v>
+        <v>15.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.903</v>
+        <v>6.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.773</v>
+        <v>28.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.709</v>
+        <v>11.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.268</v>
+        <v>4.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.408</v>
+        <v>6.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.574</v>
+        <v>8.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.465</v>
+        <v>8.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.973</v>
+        <v>2.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.783</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.28</v>
+        <v>10.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.506</v>
+        <v>6.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.095</v>
+        <v>0.6</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.33</v>
+        <v>101.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.593</v>
+        <v>20</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.667</v>
+        <v>6.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.549</v>
+        <v>13.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.336</v>
+        <v>7.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.394</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.967</v>
+        <v>14.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.431</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.57</v>
+        <v>5.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.004</v>
+        <v>6.16</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.76</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.646</v>
+        <v>26.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.769</v>
+        <v>3.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.296</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>
